--- a/outputs/geo_match.xlsx
+++ b/outputs/geo_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>AIR-INK: Air-Pollution to ink</t>
   </si>
@@ -119,9 +119,6 @@
   </si>
   <si>
     <t>BMW Foundation Herbert Quandt</t>
-  </si>
-  <si>
-    <t>Buenos Aires Innovation Park (City of Buenos Aires Government)</t>
   </si>
   <si>
     <t>C L Sandberg &amp; Associates</t>
@@ -590,7 +587,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG41"/>
+  <dimension ref="A1:AG40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -904,16 +901,16 @@
         <v>35</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -925,13 +922,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -958,31 +955,31 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -994,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1409,16 +1406,16 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1430,7 +1427,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1442,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1451,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1472,19 +1469,19 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1496,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1510,16 +1507,16 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1531,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1552,16 +1549,16 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -1573,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1597,13 +1594,13 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1611,16 +1608,16 @@
         <v>42</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1632,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1644,7 +1641,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1665,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1674,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1712,16 +1709,16 @@
         <v>43</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1733,19 +1730,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1763,10 +1760,10 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1775,19 +1772,19 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -1805,7 +1802,7 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -1914,16 +1911,16 @@
         <v>45</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1935,13 +1932,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1968,31 +1965,31 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2004,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -2039,10 +2036,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2066,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2108,7 +2105,7 @@
         <v>1</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -2116,16 +2113,16 @@
         <v>47</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2137,20 +2134,20 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
         <v>2</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>1</v>
-      </c>
       <c r="N16">
         <v>0</v>
       </c>
@@ -2167,34 +2164,34 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2206,10 +2203,10 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -2241,7 +2238,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2250,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2271,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2324,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2342,16 +2339,16 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2369,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -2378,40 +2375,40 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18">
         <v>1</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>1</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA18">
         <v>1</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -2419,16 +2416,16 @@
         <v>50</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2440,19 +2437,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2470,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -2479,40 +2476,40 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2526,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2547,7 +2544,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2562,16 +2559,16 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2580,25 +2577,25 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2607,13 +2604,13 @@
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -2621,16 +2618,16 @@
         <v>52</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2642,20 +2639,20 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
         <v>2</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>1</v>
-      </c>
       <c r="N21">
         <v>0</v>
       </c>
@@ -2663,16 +2660,16 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2684,19 +2681,19 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
         <v>1</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB21">
         <v>1</v>
@@ -2708,13 +2705,13 @@
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF21">
         <v>1</v>
       </c>
       <c r="AG21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -2722,7 +2719,7 @@
         <v>53</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -2734,52 +2731,52 @@
         <v>1</v>
       </c>
       <c r="F22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -2803,19 +2800,19 @@
         <v>1</v>
       </c>
       <c r="AC22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF22">
         <v>1</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -2823,85 +2820,85 @@
         <v>54</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23">
         <v>1</v>
       </c>
       <c r="X23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23">
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>1</v>
       </c>
       <c r="AB23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC23">
         <v>1</v>
@@ -2910,13 +2907,13 @@
         <v>1</v>
       </c>
       <c r="AE23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -2924,85 +2921,85 @@
         <v>55</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W24">
         <v>1</v>
       </c>
       <c r="X24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y24">
         <v>1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA24">
         <v>1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24">
         <v>1</v>
@@ -3011,13 +3008,13 @@
         <v>1</v>
       </c>
       <c r="AE24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -3025,94 +3022,94 @@
         <v>56</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S25">
         <v>1</v>
       </c>
       <c r="T25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25">
         <v>1</v>
       </c>
       <c r="W25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25">
         <v>1</v>
       </c>
       <c r="Y25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
       <c r="AA25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25">
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF25">
         <v>1</v>
@@ -3126,16 +3123,16 @@
         <v>57</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3147,20 +3144,20 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
         <v>2</v>
       </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>1</v>
-      </c>
       <c r="N26">
         <v>0</v>
       </c>
@@ -3177,34 +3174,34 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3216,10 +3213,10 @@
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3233,7 +3230,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3251,10 +3248,10 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3269,13 +3266,13 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3287,25 +3284,25 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27">
         <v>1</v>
       </c>
       <c r="X27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y27">
         <v>1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA27">
         <v>1</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3314,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -3334,7 +3331,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3352,10 +3349,10 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3370,13 +3367,13 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3388,25 +3385,25 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28">
         <v>1</v>
       </c>
       <c r="X28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28">
         <v>1</v>
       </c>
       <c r="Z28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA28">
         <v>1</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3415,10 +3412,10 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -3453,7 +3450,7 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3462,7 +3459,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -3483,7 +3480,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3554,7 +3551,7 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3563,7 +3560,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3572,19 +3569,19 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3611,13 +3608,13 @@
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3631,7 +3628,7 @@
         <v>62</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3643,13 +3640,13 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3661,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31">
         <v>2</v>
@@ -3670,16 +3667,16 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3688,7 +3685,7 @@
         <v>3</v>
       </c>
       <c r="U31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3712,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3732,7 +3729,7 @@
         <v>63</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3744,40 +3741,40 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -3786,10 +3783,10 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3833,100 +3830,100 @@
         <v>64</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W33">
         <v>1</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA33">
         <v>1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -4035,85 +4032,85 @@
         <v>66</v>
       </c>
       <c r="B35">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>2</v>
       </c>
       <c r="K35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S35">
         <v>1</v>
       </c>
       <c r="T35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC35">
         <v>1</v>
@@ -4122,10 +4119,10 @@
         <v>1</v>
       </c>
       <c r="AE35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35">
         <v>1</v>
@@ -4136,16 +4133,16 @@
         <v>67</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -4157,79 +4154,79 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>3</v>
+      </c>
+      <c r="N36">
+        <v>0</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0</v>
+      </c>
+      <c r="S36">
+        <v>0</v>
+      </c>
+      <c r="T36">
         <v>2</v>
       </c>
-      <c r="K36">
-        <v>1</v>
-      </c>
-      <c r="L36">
-        <v>0</v>
-      </c>
-      <c r="M36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>0</v>
-      </c>
-      <c r="O36">
-        <v>0</v>
-      </c>
-      <c r="P36">
-        <v>0</v>
-      </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
-      </c>
-      <c r="S36">
-        <v>1</v>
-      </c>
-      <c r="T36">
-        <v>1</v>
-      </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE36">
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG36">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -4243,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -4261,16 +4258,16 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -4291,31 +4288,31 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37">
         <v>1</v>
       </c>
       <c r="X37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y37">
         <v>1</v>
       </c>
       <c r="Z37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
         <v>1</v>
       </c>
       <c r="AB37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -4327,7 +4324,7 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -4344,7 +4341,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -4365,13 +4362,13 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -4380,43 +4377,43 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W38">
         <v>1</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y38">
         <v>1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA38">
         <v>1</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -4425,10 +4422,10 @@
         <v>0</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG38">
         <v>0</v>
@@ -4439,7 +4436,7 @@
         <v>70</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -4451,52 +4448,52 @@
         <v>1</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39">
         <v>1</v>
@@ -4520,19 +4517,19 @@
         <v>1</v>
       </c>
       <c r="AC39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF39">
         <v>1</v>
       </c>
       <c r="AG39">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -4540,200 +4537,99 @@
         <v>71</v>
       </c>
       <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
         <v>2</v>
       </c>
-      <c r="C40">
-        <v>1</v>
-      </c>
-      <c r="D40">
-        <v>1</v>
-      </c>
-      <c r="E40">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
-      </c>
-      <c r="I40">
-        <v>1</v>
-      </c>
-      <c r="J40">
-        <v>2</v>
-      </c>
-      <c r="K40">
-        <v>2</v>
-      </c>
-      <c r="L40">
-        <v>1</v>
-      </c>
-      <c r="M40">
-        <v>3</v>
-      </c>
       <c r="N40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W40">
         <v>1</v>
       </c>
       <c r="X40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y40">
         <v>1</v>
       </c>
       <c r="Z40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA40">
         <v>1</v>
       </c>
       <c r="AB40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:33">
-      <c r="A41" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B41">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>1</v>
-      </c>
-      <c r="J41">
-        <v>1</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>2</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
-      </c>
-      <c r="O41">
-        <v>0</v>
-      </c>
-      <c r="P41">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>1</v>
-      </c>
-      <c r="S41">
-        <v>0</v>
-      </c>
-      <c r="T41">
-        <v>3</v>
-      </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>1</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>1</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
-      </c>
-      <c r="AA41">
-        <v>1</v>
-      </c>
-      <c r="AB41">
-        <v>0</v>
-      </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
-      </c>
-      <c r="AE41">
-        <v>1</v>
-      </c>
-      <c r="AF41">
-        <v>0</v>
-      </c>
-      <c r="AG41">
         <v>0</v>
       </c>
     </row>

--- a/outputs/geo_match.xlsx
+++ b/outputs/geo_match.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>AIR-INK: Air-Pollution to ink</t>
   </si>
@@ -119,6 +119,9 @@
   </si>
   <si>
     <t>BMW Foundation Herbert Quandt</t>
+  </si>
+  <si>
+    <t>Buenos Aires Innovation Park (City of Buenos Aires Government)</t>
   </si>
   <si>
     <t>C L Sandberg &amp; Associates</t>
@@ -587,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG40"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -901,16 +904,16 @@
         <v>35</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -922,13 +925,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -955,31 +958,31 @@
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4">
         <v>0</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
         <v>0</v>
@@ -991,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
         <v>0</v>
@@ -1406,16 +1409,16 @@
         <v>40</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1427,7 +1430,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -1439,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1448,13 +1451,13 @@
         <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1469,19 +1472,19 @@
         <v>0</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>0</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9">
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -1493,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="AE9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9">
         <v>0</v>
@@ -1507,16 +1510,16 @@
         <v>41</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1528,19 +1531,19 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1549,16 +1552,16 @@
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>1</v>
@@ -1570,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="W10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X10">
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1594,13 +1597,13 @@
         <v>0</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
         <v>0</v>
       </c>
       <c r="AG10">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:33">
@@ -1608,16 +1611,16 @@
         <v>42</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1629,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -1641,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1662,7 +1665,7 @@
         <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U11">
         <v>0</v>
@@ -1671,19 +1674,19 @@
         <v>0</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
         <v>0</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1709,16 +1712,16 @@
         <v>43</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1730,19 +1733,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1760,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12">
         <v>0</v>
@@ -1772,19 +1775,19 @@
         <v>0</v>
       </c>
       <c r="W12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12">
         <v>0</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z12">
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -1802,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:33">
@@ -1911,16 +1914,16 @@
         <v>45</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1932,13 +1935,13 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1965,31 +1968,31 @@
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -2001,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="AF14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG14">
         <v>0</v>
@@ -2036,10 +2039,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -2063,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T15">
         <v>0</v>
@@ -2105,7 +2108,7 @@
         <v>1</v>
       </c>
       <c r="AG15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:33">
@@ -2113,16 +2116,16 @@
         <v>47</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -2134,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2164,34 +2167,34 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U16">
         <v>0</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16">
         <v>0</v>
@@ -2203,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:33">
@@ -2238,7 +2241,7 @@
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2247,7 +2250,7 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2268,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -2321,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -2339,16 +2342,16 @@
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2366,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -2375,40 +2378,40 @@
         <v>0</v>
       </c>
       <c r="V18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18">
         <v>1</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
         <v>1</v>
       </c>
       <c r="Z18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>1</v>
       </c>
       <c r="AB18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE18">
         <v>0</v>
       </c>
       <c r="AF18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:33">
@@ -2416,16 +2419,16 @@
         <v>50</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -2437,19 +2440,19 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19">
         <v>1</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2467,7 +2470,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
         <v>1</v>
@@ -2476,40 +2479,40 @@
         <v>0</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19">
         <v>0</v>
       </c>
       <c r="AF19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:33">
@@ -2523,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -2544,7 +2547,7 @@
         <v>1</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2559,16 +2562,16 @@
         <v>0</v>
       </c>
       <c r="P20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
       <c r="R20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T20">
         <v>1</v>
@@ -2577,25 +2580,25 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y20">
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC20">
         <v>0</v>
@@ -2604,13 +2607,13 @@
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:33">
@@ -2618,16 +2621,16 @@
         <v>52</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
         <v>0</v>
@@ -2639,19 +2642,19 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2660,16 +2663,16 @@
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
         <v>1</v>
@@ -2681,19 +2684,19 @@
         <v>1</v>
       </c>
       <c r="W21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21">
         <v>1</v>
       </c>
       <c r="Y21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z21">
         <v>1</v>
       </c>
       <c r="AA21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>1</v>
@@ -2705,13 +2708,13 @@
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF21">
         <v>1</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:33">
@@ -2719,64 +2722,64 @@
         <v>53</v>
       </c>
       <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
         <v>2</v>
       </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
-      </c>
-      <c r="I22">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>2</v>
-      </c>
-      <c r="K22">
-        <v>2</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>3</v>
-      </c>
       <c r="N22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V22">
         <v>1</v>
@@ -2800,19 +2803,19 @@
         <v>1</v>
       </c>
       <c r="AC22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF22">
         <v>1</v>
       </c>
       <c r="AG22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:33">
@@ -2820,85 +2823,85 @@
         <v>54</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>1</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>1</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA23">
         <v>1</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23">
         <v>1</v>
@@ -2907,13 +2910,13 @@
         <v>1</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:33">
@@ -2921,85 +2924,85 @@
         <v>55</v>
       </c>
       <c r="B24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24">
         <v>1</v>
       </c>
       <c r="X24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y24">
         <v>1</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
         <v>1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <v>1</v>
@@ -3008,13 +3011,13 @@
         <v>1</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:33">
@@ -3022,94 +3025,94 @@
         <v>56</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25">
         <v>2</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S25">
         <v>1</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>1</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25">
         <v>1</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z25">
         <v>1</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB25">
         <v>1</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25">
         <v>1</v>
@@ -3123,16 +3126,16 @@
         <v>57</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3144,19 +3147,19 @@
         <v>0</v>
       </c>
       <c r="I26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
       <c r="M26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -3174,34 +3177,34 @@
         <v>0</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26">
         <v>0</v>
@@ -3213,10 +3216,10 @@
         <v>0</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:33">
@@ -3230,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -3248,10 +3251,10 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L27">
         <v>0</v>
@@ -3266,13 +3269,13 @@
         <v>0</v>
       </c>
       <c r="P27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q27">
         <v>0</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -3284,25 +3287,25 @@
         <v>0</v>
       </c>
       <c r="V27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27">
         <v>1</v>
       </c>
       <c r="X27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27">
         <v>1</v>
       </c>
       <c r="Z27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA27">
         <v>1</v>
       </c>
       <c r="AB27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3311,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AE27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -3331,7 +3334,7 @@
         <v>1</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -3349,10 +3352,10 @@
         <v>1</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -3367,13 +3370,13 @@
         <v>0</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S28">
         <v>0</v>
@@ -3385,25 +3388,25 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W28">
         <v>1</v>
       </c>
       <c r="X28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y28">
         <v>1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28">
         <v>1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28">
         <v>0</v>
@@ -3412,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="AE28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -3450,7 +3453,7 @@
         <v>1</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -3459,7 +3462,7 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -3480,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="T29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U29">
         <v>0</v>
@@ -3551,7 +3554,7 @@
         <v>1</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -3560,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -3569,19 +3572,19 @@
         <v>0</v>
       </c>
       <c r="P30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30">
         <v>0</v>
       </c>
       <c r="R30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S30">
         <v>0</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -3608,13 +3611,13 @@
         <v>0</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -3628,7 +3631,7 @@
         <v>62</v>
       </c>
       <c r="B31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -3640,13 +3643,13 @@
         <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -3658,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
         <v>2</v>
@@ -3667,16 +3670,16 @@
         <v>0</v>
       </c>
       <c r="O31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -3685,7 +3688,7 @@
         <v>3</v>
       </c>
       <c r="U31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V31">
         <v>0</v>
@@ -3709,13 +3712,13 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF31">
         <v>0</v>
@@ -3729,7 +3732,7 @@
         <v>63</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -3741,40 +3744,40 @@
         <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32">
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32">
         <v>0</v>
@@ -3783,10 +3786,10 @@
         <v>0</v>
       </c>
       <c r="T32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32">
         <v>0</v>
@@ -3830,100 +3833,100 @@
         <v>64</v>
       </c>
       <c r="B33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33">
         <v>1</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33">
         <v>1</v>
       </c>
       <c r="X33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y33">
         <v>1</v>
       </c>
       <c r="Z33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA33">
         <v>1</v>
       </c>
       <c r="AB33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:33">
@@ -4032,85 +4035,85 @@
         <v>66</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35">
         <v>2</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
         <v>1</v>
       </c>
       <c r="T35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35">
         <v>1</v>
@@ -4119,10 +4122,10 @@
         <v>1</v>
       </c>
       <c r="AE35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG35">
         <v>1</v>
@@ -4133,16 +4136,16 @@
         <v>67</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -4154,10 +4157,10 @@
         <v>0</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K36">
         <v>1</v>
@@ -4166,7 +4169,7 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36">
         <v>0</v>
@@ -4184,49 +4187,49 @@
         <v>0</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U36">
         <v>0</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE36">
         <v>0</v>
       </c>
       <c r="AF36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:33">
@@ -4240,7 +4243,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -4258,16 +4261,16 @@
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N37">
         <v>0</v>
@@ -4288,31 +4291,31 @@
         <v>0</v>
       </c>
       <c r="T37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U37">
         <v>0</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W37">
         <v>1</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37">
         <v>1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA37">
         <v>1</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37">
         <v>0</v>
@@ -4324,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG37">
         <v>0</v>
@@ -4341,7 +4344,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -4362,13 +4365,13 @@
         <v>0</v>
       </c>
       <c r="K38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N38">
         <v>0</v>
@@ -4377,43 +4380,43 @@
         <v>0</v>
       </c>
       <c r="P38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38">
         <v>0</v>
       </c>
       <c r="R38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S38">
         <v>0</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="U38">
         <v>0</v>
       </c>
       <c r="V38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38">
         <v>1</v>
       </c>
       <c r="X38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y38">
         <v>1</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA38">
         <v>1</v>
       </c>
       <c r="AB38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
         <v>0</v>
@@ -4422,10 +4425,10 @@
         <v>0</v>
       </c>
       <c r="AE38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG38">
         <v>0</v>
@@ -4436,64 +4439,64 @@
         <v>70</v>
       </c>
       <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
         <v>2</v>
       </c>
-      <c r="C39">
-        <v>1</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
-      </c>
-      <c r="I39">
-        <v>1</v>
-      </c>
-      <c r="J39">
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>1</v>
+      </c>
+      <c r="S39">
+        <v>0</v>
+      </c>
+      <c r="T39">
         <v>2</v>
       </c>
-      <c r="K39">
-        <v>2</v>
-      </c>
-      <c r="L39">
-        <v>1</v>
-      </c>
-      <c r="M39">
-        <v>3</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-      <c r="O39">
-        <v>1</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>1</v>
-      </c>
-      <c r="R39">
-        <v>0</v>
-      </c>
-      <c r="S39">
-        <v>1</v>
-      </c>
-      <c r="T39">
-        <v>3</v>
-      </c>
       <c r="U39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V39">
         <v>1</v>
@@ -4517,19 +4520,19 @@
         <v>1</v>
       </c>
       <c r="AC39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF39">
         <v>1</v>
       </c>
       <c r="AG39">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:33">
@@ -4537,99 +4540,200 @@
         <v>71</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40">
         <v>1</v>
       </c>
       <c r="F40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40">
         <v>1</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
         <v>3</v>
       </c>
       <c r="U40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W40">
         <v>1</v>
       </c>
       <c r="X40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y40">
         <v>1</v>
       </c>
       <c r="Z40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA40">
         <v>1</v>
       </c>
       <c r="AB40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:33">
+      <c r="A41" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>2</v>
+      </c>
+      <c r="N41">
+        <v>0</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>1</v>
+      </c>
+      <c r="S41">
+        <v>0</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+      <c r="V41">
+        <v>0</v>
+      </c>
+      <c r="W41">
+        <v>1</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>1</v>
+      </c>
+      <c r="Z41">
+        <v>0</v>
+      </c>
+      <c r="AA41">
+        <v>1</v>
+      </c>
+      <c r="AB41">
+        <v>0</v>
+      </c>
+      <c r="AC41">
+        <v>0</v>
+      </c>
+      <c r="AD41">
+        <v>0</v>
+      </c>
+      <c r="AE41">
+        <v>1</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
         <v>0</v>
       </c>
     </row>
